--- a/docs/sessions/day1-getting-data-into-shape/data/raw/date_example.xlsx
+++ b/docs/sessions/day1-getting-data-into-shape/data/raw/date_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://latrobeuni-my.sharepoint.com/personal/kfanson_ltu_edu_au/Documents/Ben/ARI/workshops/2024_DADA_workshop/_sessions/day1-getting-data-into-shape/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104885491C7EF05BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59198EF-2880-4F4D-898A-D33A0DADDCBF}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC104885491C7EF05BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{924077C4-ED27-40B2-8192-9B25FBC943AD}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F1" sqref="F1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
